--- a/output/df_final.xlsx
+++ b/output/df_final.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>TimeStep</t>
   </si>
@@ -25,22 +25,25 @@
     <t>demand1_op_cost</t>
   </si>
   <si>
+    <t>Q_to_net1</t>
+  </si>
+  <si>
     <t>net1_inv_cost</t>
   </si>
   <si>
     <t>Q_net1_demand1</t>
   </si>
   <si>
+    <t>net1_emissions</t>
+  </si>
+  <si>
     <t>Q_from_net1</t>
   </si>
   <si>
-    <t>net1_sell_thermal</t>
+    <t>P_net1_charging_station1</t>
   </si>
   <si>
     <t>P_to_net1</t>
-  </si>
-  <si>
-    <t>net1_sell_electric</t>
   </si>
   <si>
     <t>P_net1_demand1</t>
@@ -49,46 +52,37 @@
     <t>net1_buy_electric</t>
   </si>
   <si>
-    <t>net1_emissions</t>
+    <t>P_from_net1</t>
+  </si>
+  <si>
+    <t>net1_sell_thermal</t>
   </si>
   <si>
     <t>net1_buy_thermal</t>
   </si>
   <si>
-    <t>P_from_net1</t>
+    <t>net1_sell_electric</t>
   </si>
   <si>
-    <t>Q_to_net1</t>
+    <t>charging_station1_inv_cost</t>
   </si>
   <si>
-    <t>P_from_pv1</t>
+    <t>charging_station1_op_cost</t>
   </si>
   <si>
-    <t>P_pv1_demand1</t>
-  </si>
-  <si>
-    <t>P_pv1_net1</t>
-  </si>
-  <si>
-    <t>pv1_inv_cost</t>
-  </si>
-  <si>
-    <t>pv1_emissions</t>
-  </si>
-  <si>
-    <t>pv1_op_cost</t>
+    <t>charging_station1_emissions</t>
   </si>
   <si>
     <t>total_buy</t>
-  </si>
-  <si>
-    <t>total_emissions</t>
   </si>
   <si>
     <t>total_operation_cost</t>
   </si>
   <si>
     <t>total_sell</t>
+  </si>
+  <si>
+    <t>total_emissions</t>
   </si>
 </sst>
 </file>
@@ -446,13 +440,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:W100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,14 +516,8 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2">
         <v>1</v>
       </c>
@@ -543,70 +531,64 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>288.7289689530336</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>288.7289689530336</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>177.0871009578606</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>288.7289689530336</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>192.4859793020224</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>86.61869068591008</v>
       </c>
-      <c r="L2">
-        <v>177.0871009578606</v>
-      </c>
       <c r="M2">
+        <v>192.4859793020224</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
         <v>98.16784944403143</v>
       </c>
-      <c r="N2">
-        <v>192.4859793020224</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>184.7865401299415</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>184.7865401299415</v>
+        <v>0</v>
       </c>
       <c r="W2">
         <v>177.0871009578606</v>
       </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3">
         <v>2</v>
       </c>
@@ -620,38 +602,38 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>207.9180534009679</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>207.9180534009679</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>127.5230727525937</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>207.9180534009679</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>138.6120356006453</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>58.21705495227102</v>
       </c>
-      <c r="L3">
-        <v>127.5230727525937</v>
-      </c>
       <c r="M3">
+        <v>138.6120356006453</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>74.85049922434845</v>
       </c>
-      <c r="N3">
-        <v>138.6120356006453</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
       <c r="P3">
         <v>0</v>
       </c>
@@ -665,25 +647,19 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>133.0675541766195</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>133.0675541766195</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>127.5230727525937</v>
       </c>
-      <c r="X3">
-        <v>1</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4">
         <v>3</v>
       </c>
@@ -697,38 +673,38 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>166.5715552549449</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>166.5715552549449</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>102.1638872230329</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>166.5715552549449</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>111.0477035032966</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>48.86098954145051</v>
       </c>
-      <c r="L4">
-        <v>102.1638872230329</v>
-      </c>
       <c r="M4">
+        <v>111.0477035032966</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
         <v>51.63718212903292</v>
       </c>
-      <c r="N4">
-        <v>111.0477035032966</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
       <c r="P4">
         <v>0</v>
       </c>
@@ -742,25 +718,19 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>100.4981716704834</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>100.4981716704834</v>
+        <v>0</v>
       </c>
       <c r="W4">
         <v>102.1638872230329</v>
       </c>
-      <c r="X4">
-        <v>1</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25">
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5">
         <v>4</v>
       </c>
@@ -774,38 +744,38 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>152.0780516037591</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>152.0780516037591</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>93.27453831697224</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>152.0780516037591</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>101.3853677358394</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>46.63726915848613</v>
       </c>
-      <c r="L5">
-        <v>93.27453831697224</v>
-      </c>
       <c r="M5">
+        <v>101.3853677358394</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
         <v>59.31044012546605</v>
       </c>
-      <c r="N5">
-        <v>101.3853677358394</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
       <c r="P5">
         <v>0</v>
       </c>
@@ -819,25 +789,19 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>105.9477092839522</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>105.9477092839522</v>
+        <v>0</v>
       </c>
       <c r="W5">
         <v>93.27453831697224</v>
       </c>
-      <c r="X5">
-        <v>1</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25">
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6">
         <v>5</v>
       </c>
@@ -851,38 +815,38 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>143.1566925055843</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>143.1566925055843</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>87.80277140342507</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>143.1566925055843</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>95.4377950037229</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>38.17511800148916</v>
       </c>
-      <c r="L6">
-        <v>87.80277140342507</v>
-      </c>
       <c r="M6">
+        <v>95.4377950037229</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
         <v>50.10484237695452</v>
       </c>
-      <c r="N6">
-        <v>95.4377950037229</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
       <c r="P6">
         <v>0</v>
       </c>
@@ -896,22 +860,6690 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>88.27996037844368</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>88.27996037844368</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <v>87.80277140342507</v>
       </c>
-      <c r="X6">
-        <v>1</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>142.6528283704718</v>
+      </c>
+      <c r="G7">
+        <v>87.4937347338894</v>
+      </c>
+      <c r="H7">
+        <v>142.6528283704718</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>95.10188558031456</v>
+      </c>
+      <c r="L7">
+        <v>47.55094279015728</v>
+      </c>
+      <c r="M7">
+        <v>95.10188558031456</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>48.50196164596043</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>96.0529044361177</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>87.4937347338894</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>151.0406842667613</v>
+      </c>
+      <c r="G8">
+        <v>175.1639774613914</v>
+      </c>
+      <c r="H8">
+        <v>151.0406842667613</v>
+      </c>
+      <c r="I8">
+        <v>147.3673055555556</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>100.6937895111742</v>
+      </c>
+      <c r="L8">
+        <v>111.6274927800284</v>
+      </c>
+      <c r="M8">
+        <v>248.0610950667298</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>51.35383265069885</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>-88.42038333333335</v>
+      </c>
+      <c r="S8">
+        <v>7.36836527777778</v>
+      </c>
+      <c r="T8">
+        <v>162.9813254307273</v>
+      </c>
+      <c r="U8">
+        <v>-88.42038333333335</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>182.5323427391692</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>184.4439125180649</v>
+      </c>
+      <c r="G9">
+        <v>168.8488741221909</v>
+      </c>
+      <c r="H9">
+        <v>184.4439125180649</v>
+      </c>
+      <c r="I9">
+        <v>99.50584722222226</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>122.9626083453766</v>
+      </c>
+      <c r="L9">
+        <v>97.8861204497435</v>
+      </c>
+      <c r="M9">
+        <v>222.4684555675989</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>64.55536938132272</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>-59.70350833333335</v>
+      </c>
+      <c r="S9">
+        <v>4.975292361111113</v>
+      </c>
+      <c r="T9">
+        <v>162.4414898310662</v>
+      </c>
+      <c r="U9">
+        <v>-59.70350833333335</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>173.8241664833021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>326.5928767534242</v>
+      </c>
+      <c r="G10">
+        <v>200.3102977421002</v>
+      </c>
+      <c r="H10">
+        <v>326.5928767534242</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>217.7285845022828</v>
+      </c>
+      <c r="L10">
+        <v>89.26871964593595</v>
+      </c>
+      <c r="M10">
+        <v>217.7285845022828</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>107.77564932863</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>197.0443689745659</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>200.3102977421002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>510.9182330044023</v>
+      </c>
+      <c r="G11">
+        <v>313.3631829093667</v>
+      </c>
+      <c r="H11">
+        <v>510.9182330044023</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>340.6121553362682</v>
+      </c>
+      <c r="L11">
+        <v>160.0877130080461</v>
+      </c>
+      <c r="M11">
+        <v>340.6121553362682</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>199.2581108717169</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>359.345823879763</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>313.3631829093667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>642.5453285359349</v>
+      </c>
+      <c r="G12">
+        <v>493.7887637242623</v>
+      </c>
+      <c r="H12">
+        <v>642.5453285359349</v>
+      </c>
+      <c r="I12">
+        <v>178.0255277777778</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>428.3635523572899</v>
+      </c>
+      <c r="L12">
+        <v>272.8750860607805</v>
+      </c>
+      <c r="M12">
+        <v>606.3890801350677</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>257.018131414374</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>-106.8153166666667</v>
+      </c>
+      <c r="S12">
+        <v>8.90127638888889</v>
+      </c>
+      <c r="T12">
+        <v>529.8932174751544</v>
+      </c>
+      <c r="U12">
+        <v>-106.8153166666667</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>502.6900401131512</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>748.0604062419137</v>
+      </c>
+      <c r="G13">
+        <v>483.4503824950405</v>
+      </c>
+      <c r="H13">
+        <v>748.0604062419137</v>
+      </c>
+      <c r="I13">
+        <v>44.00000000000002</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>498.7069374946091</v>
+      </c>
+      <c r="L13">
+        <v>227.9369137477358</v>
+      </c>
+      <c r="M13">
+        <v>542.7069374946092</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>224.4181218725741</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>-26.40000000000001</v>
+      </c>
+      <c r="S13">
+        <v>2.200000000000001</v>
+      </c>
+      <c r="T13">
+        <v>452.35503562031</v>
+      </c>
+      <c r="U13">
+        <v>-26.40000000000001</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>485.6503824950404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>762.5242708263288</v>
+      </c>
+      <c r="G14">
+        <v>493.3071527734817</v>
+      </c>
+      <c r="H14">
+        <v>762.5242708263288</v>
+      </c>
+      <c r="I14">
+        <v>45.76000000000001</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>508.3495138842192</v>
+      </c>
+      <c r="L14">
+        <v>265.9725666644252</v>
+      </c>
+      <c r="M14">
+        <v>554.1095138842193</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>274.5087374974784</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>-27.456</v>
+      </c>
+      <c r="S14">
+        <v>2.288</v>
+      </c>
+      <c r="T14">
+        <v>540.4813041619036</v>
+      </c>
+      <c r="U14">
+        <v>-27.456</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>495.5951527734817</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>638.3365810544047</v>
+      </c>
+      <c r="G15">
+        <v>417.4494408244794</v>
+      </c>
+      <c r="H15">
+        <v>638.3365810544047</v>
+      </c>
+      <c r="I15">
+        <v>46.31488888888889</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>425.5577207029365</v>
+      </c>
+      <c r="L15">
+        <v>212.3426743163214</v>
+      </c>
+      <c r="M15">
+        <v>471.8726095918254</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>242.5679008006738</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>-27.78893333333334</v>
+      </c>
+      <c r="S15">
+        <v>2.315744444444445</v>
+      </c>
+      <c r="T15">
+        <v>454.9105751169952</v>
+      </c>
+      <c r="U15">
+        <v>-27.78893333333334</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>419.7651852689238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>502.1450692400854</v>
+      </c>
+      <c r="G16">
+        <v>307.9823091339191</v>
+      </c>
+      <c r="H16">
+        <v>502.1450692400854</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>334.7633794933903</v>
+      </c>
+      <c r="L16">
+        <v>133.9053517973561</v>
+      </c>
+      <c r="M16">
+        <v>334.7633794933903</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>185.7936756188316</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>319.6990274161877</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>307.9823091339191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>430.1221369857234</v>
+      </c>
+      <c r="G17">
+        <v>280.8098440179103</v>
+      </c>
+      <c r="H17">
+        <v>430.1221369857234</v>
+      </c>
+      <c r="I17">
+        <v>30.36000000000001</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>286.7480913238156</v>
+      </c>
+      <c r="L17">
+        <v>155.3829647486696</v>
+      </c>
+      <c r="M17">
+        <v>317.1080913238156</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>154.8439693148604</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>-18.216</v>
+      </c>
+      <c r="S17">
+        <v>1.518</v>
+      </c>
+      <c r="T17">
+        <v>310.2269340635301</v>
+      </c>
+      <c r="U17">
+        <v>-18.216</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>282.3278440179103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>393.6068067234295</v>
+      </c>
+      <c r="G18">
+        <v>319.0754014570368</v>
+      </c>
+      <c r="H18">
+        <v>393.6068067234295</v>
+      </c>
+      <c r="I18">
+        <v>138.6843333333334</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>262.4045378156197</v>
+      </c>
+      <c r="L18">
+        <v>184.5008807285184</v>
+      </c>
+      <c r="M18">
+        <v>401.088871148953</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>153.5066546221375</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>-83.21060000000001</v>
+      </c>
+      <c r="S18">
+        <v>6.934216666666669</v>
+      </c>
+      <c r="T18">
+        <v>338.0075353506559</v>
+      </c>
+      <c r="U18">
+        <v>-83.21060000000001</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>326.0096181237034</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>463.7031996376547</v>
+      </c>
+      <c r="G19">
+        <v>307.0989246666504</v>
+      </c>
+      <c r="H19">
+        <v>463.7031996376547</v>
+      </c>
+      <c r="I19">
+        <v>40.52552777777779</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>309.1354664251031</v>
+      </c>
+      <c r="L19">
+        <v>167.8372772173828</v>
+      </c>
+      <c r="M19">
+        <v>349.6609942028809</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>157.6590878768026</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>-24.31531666666667</v>
+      </c>
+      <c r="S19">
+        <v>2.02627638888889</v>
+      </c>
+      <c r="T19">
+        <v>325.4963650941854</v>
+      </c>
+      <c r="U19">
+        <v>-24.31531666666667</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>309.1252010555393</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>576.954073770954</v>
+      </c>
+      <c r="G20">
+        <v>353.8651652461851</v>
+      </c>
+      <c r="H20">
+        <v>576.954073770954</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>384.636049180636</v>
+      </c>
+      <c r="L20">
+        <v>153.8544196722544</v>
+      </c>
+      <c r="M20">
+        <v>384.636049180636</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>225.0120887706721</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>378.8665084429265</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>353.8651652461851</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>650.2811249632553</v>
+      </c>
+      <c r="G21">
+        <v>398.8390899774632</v>
+      </c>
+      <c r="H21">
+        <v>650.2811249632553</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>433.5207499755035</v>
+      </c>
+      <c r="L21">
+        <v>177.7435074899564</v>
+      </c>
+      <c r="M21">
+        <v>433.5207499755035</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>214.5927712378742</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>392.3362787278307</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>398.8390899774632</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>590.7066007528571</v>
+      </c>
+      <c r="G22">
+        <v>362.3000484617523</v>
+      </c>
+      <c r="H22">
+        <v>590.7066007528571</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>393.8044005019047</v>
+      </c>
+      <c r="L22">
+        <v>192.9641562459333</v>
+      </c>
+      <c r="M22">
+        <v>393.8044005019047</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>218.5614422785571</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>411.5255985244904</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>362.3000484617523</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>499.9517782990056</v>
+      </c>
+      <c r="G23">
+        <v>306.6370906900568</v>
+      </c>
+      <c r="H23">
+        <v>499.9517782990056</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>333.3011855326704</v>
+      </c>
+      <c r="L23">
+        <v>133.3204742130682</v>
+      </c>
+      <c r="M23">
+        <v>333.3011855326704</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>169.9836046216619</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>303.30407883473</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>306.6370906900568</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>423.3051516283149</v>
+      </c>
+      <c r="G24">
+        <v>259.6271596653665</v>
+      </c>
+      <c r="H24">
+        <v>423.3051516283149</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>282.2034344188766</v>
+      </c>
+      <c r="L24">
+        <v>115.7034081117394</v>
+      </c>
+      <c r="M24">
+        <v>282.2034344188766</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>126.9915454884945</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>242.6949536002339</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>259.6271596653665</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>312.1882903025506</v>
+      </c>
+      <c r="G25">
+        <v>191.4754847188977</v>
+      </c>
+      <c r="H25">
+        <v>312.1882903025506</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>208.1255268683671</v>
+      </c>
+      <c r="L25">
+        <v>93.6564870907652</v>
+      </c>
+      <c r="M25">
+        <v>208.1255268683671</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>121.7534332179948</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>215.40992030876</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>191.4754847188977</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>247.7233200748814</v>
+      </c>
+      <c r="G26">
+        <v>151.9369696459273</v>
+      </c>
+      <c r="H26">
+        <v>247.7233200748814</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>165.1488800499209</v>
+      </c>
+      <c r="L26">
+        <v>79.27146242396203</v>
+      </c>
+      <c r="M26">
+        <v>165.1488800499209</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>99.08932802995255</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>178.3607904539146</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>151.9369696459273</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>195.4400062902328</v>
+      </c>
+      <c r="G27">
+        <v>119.8698705246761</v>
+      </c>
+      <c r="H27">
+        <v>195.4400062902328</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>130.2933375268219</v>
+      </c>
+      <c r="L27">
+        <v>59.93493526233807</v>
+      </c>
+      <c r="M27">
+        <v>130.2933375268219</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>64.49520207577683</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>124.4301373381149</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>119.8698705246761</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>155.5161833492336</v>
+      </c>
+      <c r="G28">
+        <v>95.38325912086324</v>
+      </c>
+      <c r="H28">
+        <v>155.5161833492336</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>103.6774555661557</v>
+      </c>
+      <c r="L28">
+        <v>49.76517867175473</v>
+      </c>
+      <c r="M28">
+        <v>103.6774555661557</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>49.76517867175474</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>99.53035734350948</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>95.38325912086324</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>146.6837414513741</v>
+      </c>
+      <c r="G29">
+        <v>89.96602809017614</v>
+      </c>
+      <c r="H29">
+        <v>146.6837414513741</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>97.78916096758275</v>
+      </c>
+      <c r="L29">
+        <v>42.04933921606058</v>
+      </c>
+      <c r="M29">
+        <v>97.78916096758275</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>46.93879726443972</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>88.9881364805003</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>89.96602809017614</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>142.1786033021299</v>
+      </c>
+      <c r="G30">
+        <v>107.623276691973</v>
+      </c>
+      <c r="H30">
+        <v>142.1786033021299</v>
+      </c>
+      <c r="I30">
+        <v>36.465</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>94.78573553475324</v>
+      </c>
+      <c r="L30">
+        <v>64.31286041202908</v>
+      </c>
+      <c r="M30">
+        <v>131.2507355347532</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>55.44965528783064</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>-21.879</v>
+      </c>
+      <c r="S30">
+        <v>1.82325</v>
+      </c>
+      <c r="T30">
+        <v>119.7625156998597</v>
+      </c>
+      <c r="U30">
+        <v>-21.879</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>109.446526691973</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>148.0767775896273</v>
+      </c>
+      <c r="G31">
+        <v>111.8936980327492</v>
+      </c>
+      <c r="H31">
+        <v>148.0767775896273</v>
+      </c>
+      <c r="I31">
+        <v>37.63084722222222</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>98.71785172641819</v>
+      </c>
+      <c r="L31">
+        <v>62.72040151637459</v>
+      </c>
+      <c r="M31">
+        <v>136.3486989486404</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>48.865336604577</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>-22.57850833333333</v>
+      </c>
+      <c r="S31">
+        <v>1.881542361111111</v>
+      </c>
+      <c r="T31">
+        <v>111.5857381209516</v>
+      </c>
+      <c r="U31">
+        <v>-22.57850833333333</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>113.7752403938603</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>196.1809829595164</v>
+      </c>
+      <c r="G32">
+        <v>138.1555684373923</v>
+      </c>
+      <c r="H32">
+        <v>196.1809829595164</v>
+      </c>
+      <c r="I32">
+        <v>31.84148611111112</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>130.7873219730109</v>
+      </c>
+      <c r="L32">
+        <v>79.68811596121979</v>
+      </c>
+      <c r="M32">
+        <v>162.628808084122</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>78.47239318380656</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>-19.10489166666667</v>
+      </c>
+      <c r="S32">
+        <v>1.592074305555556</v>
+      </c>
+      <c r="T32">
+        <v>158.1605091450264</v>
+      </c>
+      <c r="U32">
+        <v>-19.10489166666667</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>139.7476427429478</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>302.7630670692649</v>
+      </c>
+      <c r="G33">
+        <v>274.973272246927</v>
+      </c>
+      <c r="H33">
+        <v>302.7630670692649</v>
+      </c>
+      <c r="I33">
+        <v>159.4260555555556</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>201.8420447128433</v>
+      </c>
+      <c r="L33">
+        <v>166.1833261234635</v>
+      </c>
+      <c r="M33">
+        <v>361.2681002683989</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>93.85655079147213</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>-95.65563333333336</v>
+      </c>
+      <c r="S33">
+        <v>7.97130277777778</v>
+      </c>
+      <c r="T33">
+        <v>260.0398769149356</v>
+      </c>
+      <c r="U33">
+        <v>-95.65563333333336</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>282.9445750247048</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>442.2445152952025</v>
+      </c>
+      <c r="G34">
+        <v>271.2433027143909</v>
+      </c>
+      <c r="H34">
+        <v>442.2445152952025</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>294.8296768634683</v>
+      </c>
+      <c r="L34">
+        <v>135.6216513571954</v>
+      </c>
+      <c r="M34">
+        <v>294.8296768634683</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>168.0529158121769</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>303.6745671693724</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>271.2433027143909</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>523.5444754489954</v>
+      </c>
+      <c r="G35">
+        <v>329.9776782753839</v>
+      </c>
+      <c r="H35">
+        <v>523.5444754489954</v>
+      </c>
+      <c r="I35">
+        <v>15.84000000000001</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>349.0296502993302</v>
+      </c>
+      <c r="L35">
+        <v>182.4348251496651</v>
+      </c>
+      <c r="M35">
+        <v>364.8696502993303</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>209.4177901795982</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>-9.504000000000005</v>
+      </c>
+      <c r="S35">
+        <v>0.7920000000000004</v>
+      </c>
+      <c r="T35">
+        <v>391.8526153292633</v>
+      </c>
+      <c r="U35">
+        <v>-9.504000000000005</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>330.7696782753839</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>546.2480005958435</v>
+      </c>
+      <c r="G36">
+        <v>383.4083836987841</v>
+      </c>
+      <c r="H36">
+        <v>546.2480005958435</v>
+      </c>
+      <c r="I36">
+        <v>86.38620833333337</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>364.1653337305623</v>
+      </c>
+      <c r="L36">
+        <v>193.7371630874752</v>
+      </c>
+      <c r="M36">
+        <v>450.5515420638957</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>202.1117602204621</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>-51.83172500000002</v>
+      </c>
+      <c r="S36">
+        <v>4.319310416666669</v>
+      </c>
+      <c r="T36">
+        <v>395.8489233079372</v>
+      </c>
+      <c r="U36">
+        <v>-51.83172500000002</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>387.7276941154507</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>572.6860481558806</v>
+      </c>
+      <c r="G37">
+        <v>365.8366328689401</v>
+      </c>
+      <c r="H37">
+        <v>572.6860481558806</v>
+      </c>
+      <c r="I37">
+        <v>26.05212500000001</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>381.7906987705871</v>
+      </c>
+      <c r="L37">
+        <v>199.8429836475877</v>
+      </c>
+      <c r="M37">
+        <v>407.8428237705871</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>171.8058144467642</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>-15.63127500000001</v>
+      </c>
+      <c r="S37">
+        <v>1.302606250000001</v>
+      </c>
+      <c r="T37">
+        <v>371.6487980943518</v>
+      </c>
+      <c r="U37">
+        <v>-15.63127500000001</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>367.1392391189401</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>615.5441387072419</v>
+      </c>
+      <c r="G38">
+        <v>411.3421284071084</v>
+      </c>
+      <c r="H38">
+        <v>615.5441387072419</v>
+      </c>
+      <c r="I38">
+        <v>60.37212500000001</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>410.3627591381613</v>
+      </c>
+      <c r="L38">
+        <v>216.5380467035542</v>
+      </c>
+      <c r="M38">
+        <v>470.7348841381613</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>203.1295657733899</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>-36.22327500000001</v>
+      </c>
+      <c r="S38">
+        <v>3.018606250000001</v>
+      </c>
+      <c r="T38">
+        <v>419.6676124769441</v>
+      </c>
+      <c r="U38">
+        <v>-36.22327500000001</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>414.3607346571084</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>612.6691492304217</v>
+      </c>
+      <c r="G39">
+        <v>375.770411527992</v>
+      </c>
+      <c r="H39">
+        <v>612.6691492304217</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>408.4460994869478</v>
+      </c>
+      <c r="L39">
+        <v>183.8007447691265</v>
+      </c>
+      <c r="M39">
+        <v>408.4460994869478</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>196.0541277537349</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>379.8548725228615</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>375.770411527992</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>566.9360692022404</v>
+      </c>
+      <c r="G40">
+        <v>347.7207891107075</v>
+      </c>
+      <c r="H40">
+        <v>566.9360692022404</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>377.9573794681603</v>
+      </c>
+      <c r="L40">
+        <v>181.4195421447169</v>
+      </c>
+      <c r="M40">
+        <v>377.9573794681603</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>187.0889028367394</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>368.5084449814563</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>347.7207891107075</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>531.2209937427724</v>
+      </c>
+      <c r="G41">
+        <v>345.2677961622338</v>
+      </c>
+      <c r="H41">
+        <v>531.2209937427724</v>
+      </c>
+      <c r="I41">
+        <v>34.73616666666668</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>354.1473291618483</v>
+      </c>
+      <c r="L41">
+        <v>171.1087381645466</v>
+      </c>
+      <c r="M41">
+        <v>388.883495828515</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>169.9907179976872</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>-20.84170000000001</v>
+      </c>
+      <c r="S41">
+        <v>1.736808333333334</v>
+      </c>
+      <c r="T41">
+        <v>341.0994561622338</v>
+      </c>
+      <c r="U41">
+        <v>-20.84170000000001</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>347.0046044955672</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>534.8073208221048</v>
+      </c>
+      <c r="G42">
+        <v>357.1647045486687</v>
+      </c>
+      <c r="H42">
+        <v>534.8073208221048</v>
+      </c>
+      <c r="I42">
+        <v>52.0527638888889</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>356.5382138814032</v>
+      </c>
+      <c r="L42">
+        <v>204.295488885146</v>
+      </c>
+      <c r="M42">
+        <v>408.5909777702921</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>192.5306354959577</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>-31.23165833333334</v>
+      </c>
+      <c r="S42">
+        <v>2.602638194444445</v>
+      </c>
+      <c r="T42">
+        <v>396.8261243811037</v>
+      </c>
+      <c r="U42">
+        <v>-31.23165833333334</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>359.7673427431132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>666.8790023552073</v>
+      </c>
+      <c r="G43">
+        <v>468.7236381111938</v>
+      </c>
+      <c r="H43">
+        <v>666.8790023552073</v>
+      </c>
+      <c r="I43">
+        <v>106.6152083333334</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>444.5860015701382</v>
+      </c>
+      <c r="L43">
+        <v>248.0405444565622</v>
+      </c>
+      <c r="M43">
+        <v>551.2012099034715</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>233.4076508243225</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>-63.96912500000001</v>
+      </c>
+      <c r="S43">
+        <v>5.330760416666668</v>
+      </c>
+      <c r="T43">
+        <v>481.4481952808848</v>
+      </c>
+      <c r="U43">
+        <v>-63.96912500000001</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>474.0543985278605</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>773.6685599323542</v>
+      </c>
+      <c r="G44">
+        <v>492.3479489807328</v>
+      </c>
+      <c r="H44">
+        <v>773.6685599323542</v>
+      </c>
+      <c r="I44">
+        <v>31.84148611111112</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>515.7790399549028</v>
+      </c>
+      <c r="L44">
+        <v>262.8578525116866</v>
+      </c>
+      <c r="M44">
+        <v>547.6205260660139</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>309.4674239729417</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>-19.10489166666667</v>
+      </c>
+      <c r="S44">
+        <v>1.592074305555556</v>
+      </c>
+      <c r="T44">
+        <v>572.3252764846284</v>
+      </c>
+      <c r="U44">
+        <v>-19.10489166666667</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>493.9400232862884</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>776.336075941776</v>
+      </c>
+      <c r="G45">
+        <v>476.1527932442893</v>
+      </c>
+      <c r="H45">
+        <v>776.336075941776</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>517.557383961184</v>
+      </c>
+      <c r="L45">
+        <v>222.5496751033091</v>
+      </c>
+      <c r="M45">
+        <v>517.557383961184</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>302.7710696172927</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>525.3207447206017</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>476.1527932442893</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>635.2837571769562</v>
+      </c>
+      <c r="G46">
+        <v>389.6407044018665</v>
+      </c>
+      <c r="H46">
+        <v>635.2837571769562</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>423.5225047846375</v>
+      </c>
+      <c r="L46">
+        <v>194.8203522009333</v>
+      </c>
+      <c r="M46">
+        <v>423.5225047846375</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>196.9379647248564</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>391.7583169257897</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>389.6407044018665</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>495.4170010829909</v>
+      </c>
+      <c r="G47">
+        <v>303.8557606642344</v>
+      </c>
+      <c r="H47">
+        <v>495.4170010829909</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>330.2780007219939</v>
+      </c>
+      <c r="L47">
+        <v>145.3223203176773</v>
+      </c>
+      <c r="M47">
+        <v>330.2780007219939</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>173.3959503790468</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>318.7182706967241</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>303.8557606642344</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>452.6181886651721</v>
+      </c>
+      <c r="G48">
+        <v>277.6058223813055</v>
+      </c>
+      <c r="H48">
+        <v>452.6181886651721</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>301.7454591101147</v>
+      </c>
+      <c r="L48">
+        <v>120.6981836440459</v>
+      </c>
+      <c r="M48">
+        <v>301.7454591101147</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>135.7854565995516</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>256.4836402435975</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>277.6058223813055</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>383.9741100227426</v>
+      </c>
+      <c r="G49">
+        <v>235.5041208139488</v>
+      </c>
+      <c r="H49">
+        <v>383.9741100227426</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>255.9827400151617</v>
+      </c>
+      <c r="L49">
+        <v>107.5127508063679</v>
+      </c>
+      <c r="M49">
+        <v>255.9827400151617</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>115.1922330068228</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>222.7049838131907</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>235.5041208139488</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>289.2772916883042</v>
+      </c>
+      <c r="G50">
+        <v>177.4234055688266</v>
+      </c>
+      <c r="H50">
+        <v>289.2772916883042</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>192.8515277922028</v>
+      </c>
+      <c r="L50">
+        <v>92.56873334025734</v>
+      </c>
+      <c r="M50">
+        <v>192.8515277922028</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>101.2470520909065</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>193.8157854311638</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>177.4234055688266</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>208.2144440686815</v>
+      </c>
+      <c r="G51">
+        <v>127.7048590287913</v>
+      </c>
+      <c r="H51">
+        <v>208.2144440686815</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>138.809629379121</v>
+      </c>
+      <c r="L51">
+        <v>66.62862210197807</v>
+      </c>
+      <c r="M51">
+        <v>138.809629379121</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>70.7929109833517</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>137.4215330853298</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>127.7048590287913</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>166.7493896555733</v>
+      </c>
+      <c r="G52">
+        <v>102.2729589887516</v>
+      </c>
+      <c r="H52">
+        <v>166.7493896555733</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>111.1662597703822</v>
+      </c>
+      <c r="L52">
+        <v>55.5831298851911</v>
+      </c>
+      <c r="M52">
+        <v>111.1662597703822</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>55.02729858633919</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>110.6104284715303</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>102.2729589887516</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>152.2262469376147</v>
+      </c>
+      <c r="G53">
+        <v>93.36543145507038</v>
+      </c>
+      <c r="H53">
+        <v>152.2262469376147</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>101.4841646250765</v>
+      </c>
+      <c r="L53">
+        <v>41.60850749628136</v>
+      </c>
+      <c r="M53">
+        <v>101.4841646250765</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>47.19013655066057</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>88.79864404694193</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>93.36543145507038</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>143.3048878394415</v>
+      </c>
+      <c r="G54">
+        <v>87.89366454152412</v>
+      </c>
+      <c r="H54">
+        <v>143.3048878394415</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>95.53659189296098</v>
+      </c>
+      <c r="L54">
+        <v>43.94683227076205</v>
+      </c>
+      <c r="M54">
+        <v>95.53659189296098</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>47.29061298701569</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>91.23744525777775</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>87.89366454152412</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>142.8899409046421</v>
+      </c>
+      <c r="G55">
+        <v>120.6690837548472</v>
+      </c>
+      <c r="H55">
+        <v>142.8899409046421</v>
+      </c>
+      <c r="I55">
+        <v>58.98200000000002</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>95.25996060309471</v>
+      </c>
+      <c r="L55">
+        <v>72.49372148345452</v>
+      </c>
+      <c r="M55">
+        <v>154.2419606030947</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>55.72707695281041</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>-35.38920000000001</v>
+      </c>
+      <c r="S55">
+        <v>2.949100000000001</v>
+      </c>
+      <c r="T55">
+        <v>128.2207984362649</v>
+      </c>
+      <c r="U55">
+        <v>-35.38920000000001</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>123.6181837548472</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>151.514909335104</v>
+      </c>
+      <c r="G56">
+        <v>124.0402243921971</v>
+      </c>
+      <c r="H56">
+        <v>151.514909335104</v>
+      </c>
+      <c r="I56">
+        <v>55.55550000000002</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>101.009939556736</v>
+      </c>
+      <c r="L56">
+        <v>75.15141098723328</v>
+      </c>
+      <c r="M56">
+        <v>156.565439556736</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>46.96962189388224</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>-33.33330000000002</v>
+      </c>
+      <c r="S56">
+        <v>2.777775000000001</v>
+      </c>
+      <c r="T56">
+        <v>122.1210328811155</v>
+      </c>
+      <c r="U56">
+        <v>-33.33330000000002</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>126.8179993921971</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>184.9774157199486</v>
+      </c>
+      <c r="G57">
+        <v>158.4516149749018</v>
+      </c>
+      <c r="H57">
+        <v>184.9774157199486</v>
+      </c>
+      <c r="I57">
+        <v>80.35500000000002</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>123.3182771466324</v>
+      </c>
+      <c r="L57">
+        <v>97.76317303038356</v>
+      </c>
+      <c r="M57">
+        <v>203.6732771466324</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>55.49322471598457</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>-48.21300000000001</v>
+      </c>
+      <c r="S57">
+        <v>4.017750000000001</v>
+      </c>
+      <c r="T57">
+        <v>153.2563977463681</v>
+      </c>
+      <c r="U57">
+        <v>-48.21300000000001</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>162.4693649749018</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>327.5413268901066</v>
+      </c>
+      <c r="G58">
+        <v>200.8920138259321</v>
+      </c>
+      <c r="H58">
+        <v>327.5413268901066</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>218.3608845934044</v>
+      </c>
+      <c r="L58">
+        <v>102.6296157589001</v>
+      </c>
+      <c r="M58">
+        <v>218.3608845934044</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>117.9148776804384</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>220.5444934393384</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>200.8920138259321</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>512.459464476512</v>
+      </c>
+      <c r="G59">
+        <v>349.738310434483</v>
+      </c>
+      <c r="H59">
+        <v>512.459464476512</v>
+      </c>
+      <c r="I59">
+        <v>63.26756944444448</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>341.6396429843413</v>
+      </c>
+      <c r="L59">
+        <v>194.3554619658172</v>
+      </c>
+      <c r="M59">
+        <v>404.9072124287858</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>199.8591911458397</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>-37.96054166666669</v>
+      </c>
+      <c r="S59">
+        <v>3.163378472222224</v>
+      </c>
+      <c r="T59">
+        <v>394.2146531116568</v>
+      </c>
+      <c r="U59">
+        <v>-37.96054166666669</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>352.9016889067052</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>644.4422288093012</v>
+      </c>
+      <c r="G60">
+        <v>442.4301536697049</v>
+      </c>
+      <c r="H60">
+        <v>644.4422288093012</v>
+      </c>
+      <c r="I60">
+        <v>84.23616666666668</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>429.6281525395342</v>
+      </c>
+      <c r="L60">
+        <v>236.3775868348524</v>
+      </c>
+      <c r="M60">
+        <v>513.8643192062009</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>219.1103577951624</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>-50.54170000000001</v>
+      </c>
+      <c r="S60">
+        <v>4.211808333333334</v>
+      </c>
+      <c r="T60">
+        <v>455.4879446300149</v>
+      </c>
+      <c r="U60">
+        <v>-50.54170000000001</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>446.6419620030382</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>750.3129753165368</v>
+      </c>
+      <c r="G61">
+        <v>518.5820848608093</v>
+      </c>
+      <c r="H61">
+        <v>750.3129753165368</v>
+      </c>
+      <c r="I61">
+        <v>104.2680833333334</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>500.2086502110246</v>
+      </c>
+      <c r="L61">
+        <v>272.0145300949611</v>
+      </c>
+      <c r="M61">
+        <v>604.476733544358</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>277.6158008671187</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>-62.56085000000002</v>
+      </c>
+      <c r="S61">
+        <v>5.21340416666667</v>
+      </c>
+      <c r="T61">
+        <v>549.6303309620798</v>
+      </c>
+      <c r="U61">
+        <v>-62.56085000000002</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>523.795489027476</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>764.8064789677235</v>
+      </c>
+      <c r="G62">
+        <v>469.0813071002037</v>
+      </c>
+      <c r="H62">
+        <v>764.8064789677235</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>509.8709859784823</v>
+      </c>
+      <c r="L62">
+        <v>229.441943690317</v>
+      </c>
+      <c r="M62">
+        <v>509.8709859784823</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>252.3861380593488</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>481.8280817496658</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>469.0813071002037</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>640.1742031942279</v>
+      </c>
+      <c r="G63">
+        <v>392.6401779591264</v>
+      </c>
+      <c r="H63">
+        <v>640.1742031942279</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>426.7828021294853</v>
+      </c>
+      <c r="L63">
+        <v>170.7131208517941</v>
+      </c>
+      <c r="M63">
+        <v>426.7828021294853</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>204.8557450221529</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>375.5688658739471</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <v>392.6401779591264</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>503.6863007121951</v>
+      </c>
+      <c r="G64">
+        <v>308.9275977701463</v>
+      </c>
+      <c r="H64">
+        <v>503.6863007121951</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>335.7908671414634</v>
+      </c>
+      <c r="L64">
+        <v>151.1058902136585</v>
+      </c>
+      <c r="M64">
+        <v>335.7908671414634</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>176.2902052492683</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>327.3960954629268</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>308.9275977701463</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>431.4558949904333</v>
+      </c>
+      <c r="G65">
+        <v>276.4534822607991</v>
+      </c>
+      <c r="H65">
+        <v>431.4558949904333</v>
+      </c>
+      <c r="I65">
+        <v>21.12000000000001</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>287.6372633269555</v>
+      </c>
+      <c r="L65">
+        <v>142.0283411303996</v>
+      </c>
+      <c r="M65">
+        <v>308.7572633269555</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>163.9532400963647</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>-12.672</v>
+      </c>
+      <c r="S65">
+        <v>1.056</v>
+      </c>
+      <c r="T65">
+        <v>305.9815812267642</v>
+      </c>
+      <c r="U65">
+        <v>-12.672</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>277.5094822607991</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>394.7923693942836</v>
+      </c>
+      <c r="G66">
+        <v>249.5313198951606</v>
+      </c>
+      <c r="H66">
+        <v>394.7923693942836</v>
+      </c>
+      <c r="I66">
+        <v>13.20000000000001</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>263.1949129295224</v>
+      </c>
+      <c r="L66">
+        <v>113.3219143011042</v>
+      </c>
+      <c r="M66">
+        <v>276.3949129295224</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>153.9690240637706</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>-7.920000000000003</v>
+      </c>
+      <c r="S66">
+        <v>0.6600000000000004</v>
+      </c>
+      <c r="T66">
+        <v>267.2909383648748</v>
+      </c>
+      <c r="U66">
+        <v>-7.920000000000003</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>250.1913198951606</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>465.0962357759078</v>
+      </c>
+      <c r="G67">
+        <v>339.2639157203346</v>
+      </c>
+      <c r="H67">
+        <v>465.0962357759078</v>
+      </c>
+      <c r="I67">
+        <v>96.43730555555558</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>310.0641571839385</v>
+      </c>
+      <c r="L67">
+        <v>199.1857167423521</v>
+      </c>
+      <c r="M67">
+        <v>406.5014627394941</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>186.0384943103631</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>-57.86238333333335</v>
+      </c>
+      <c r="S67">
+        <v>4.821865277777779</v>
+      </c>
+      <c r="T67">
+        <v>385.2242110527152</v>
+      </c>
+      <c r="U67">
+        <v>-57.86238333333335</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>344.0857809981123</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>578.7027787104623</v>
+      </c>
+      <c r="G68">
+        <v>382.7285442757503</v>
+      </c>
+      <c r="H68">
+        <v>578.7027787104623</v>
+      </c>
+      <c r="I68">
+        <v>49.62650000000001</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>385.8018524736416</v>
+      </c>
+      <c r="L68">
+        <v>174.1713409894567</v>
+      </c>
+      <c r="M68">
+        <v>435.4283524736416</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>208.3330003357664</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>-29.77590000000001</v>
+      </c>
+      <c r="S68">
+        <v>2.481325000000001</v>
+      </c>
+      <c r="T68">
+        <v>382.5043413252231</v>
+      </c>
+      <c r="U68">
+        <v>-29.77590000000001</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>385.2098692757503</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>652.2076643033931</v>
+      </c>
+      <c r="G69">
+        <v>400.0207007727478</v>
+      </c>
+      <c r="H69">
+        <v>652.2076643033931</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>434.8051095355954</v>
+      </c>
+      <c r="L69">
+        <v>195.6622992910179</v>
+      </c>
+      <c r="M69">
+        <v>434.8051095355954</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>247.8389124352894</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>443.5012117263074</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>400.0207007727478</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>592.4553056923662</v>
+      </c>
+      <c r="G70">
+        <v>363.372587491318</v>
+      </c>
+      <c r="H70">
+        <v>592.4553056923662</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>394.9702037949108</v>
+      </c>
+      <c r="L70">
+        <v>173.7868896697607</v>
+      </c>
+      <c r="M70">
+        <v>394.9702037949108</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>236.9821222769465</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>410.7690119467072</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>363.372587491318</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>501.4633707043439</v>
+      </c>
+      <c r="G71">
+        <v>307.5642006986643</v>
+      </c>
+      <c r="H71">
+        <v>501.4633707043439</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>334.3089138028959</v>
+      </c>
+      <c r="L71">
+        <v>163.811367763419</v>
+      </c>
+      <c r="M71">
+        <v>334.3089138028959</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>150.4390112113032</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>314.2503789747221</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>307.5642006986643</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>424.5796314994821</v>
+      </c>
+      <c r="G72">
+        <v>260.4088406530157</v>
+      </c>
+      <c r="H72">
+        <v>424.5796314994821</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>283.0530876663214</v>
+      </c>
+      <c r="L72">
+        <v>138.6960129564975</v>
+      </c>
+      <c r="M72">
+        <v>283.0530876663214</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>169.8318525997929</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>308.5278655562904</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>260.4088406530157</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>313.1367404392338</v>
+      </c>
+      <c r="G73">
+        <v>192.0572008027301</v>
+      </c>
+      <c r="H73">
+        <v>313.1367404392338</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>208.7578269594892</v>
+      </c>
+      <c r="L73">
+        <v>104.3789134797446</v>
+      </c>
+      <c r="M73">
+        <v>208.7578269594892</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>109.5978591537318</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>213.9767726334764</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>192.0572008027301</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>215.9798795627733</v>
+      </c>
+      <c r="G74">
+        <v>132.4676594651676</v>
+      </c>
+      <c r="H74">
+        <v>215.9798795627733</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>143.9865863751822</v>
+      </c>
+      <c r="L74">
+        <v>60.47436627757653</v>
+      </c>
+      <c r="M74">
+        <v>143.9865863751822</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>64.79396386883199</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>125.2683301464085</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>132.4676594651676</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>159.754569897537</v>
+      </c>
+      <c r="G75">
+        <v>97.98280287048937</v>
+      </c>
+      <c r="H75">
+        <v>159.754569897537</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>106.503046598358</v>
+      </c>
+      <c r="L75">
+        <v>47.9263709692611</v>
+      </c>
+      <c r="M75">
+        <v>106.503046598358</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>63.90182795901481</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>111.8281989282759</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>97.98280287048937</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>146.5059070507465</v>
+      </c>
+      <c r="G76">
+        <v>89.85695632445783</v>
+      </c>
+      <c r="H76">
+        <v>146.5059070507465</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>97.67060470049763</v>
+      </c>
+      <c r="L76">
+        <v>41.99836002121398</v>
+      </c>
+      <c r="M76">
+        <v>97.67060470049763</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>46.88189025623887</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>88.88025027745286</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>89.85695632445783</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>142.6231893036998</v>
+      </c>
+      <c r="G77">
+        <v>87.47555610626924</v>
+      </c>
+      <c r="H77">
+        <v>142.6231893036998</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>95.08212620246655</v>
+      </c>
+      <c r="L77">
+        <v>38.03285048098662</v>
+      </c>
+      <c r="M77">
+        <v>95.08212620246655</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>42.78695679110995</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>80.81980727209657</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>87.47555610626924</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>144.9350365118649</v>
+      </c>
+      <c r="G78">
+        <v>88.89348906061046</v>
+      </c>
+      <c r="H78">
+        <v>144.9350365118649</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>96.62335767457658</v>
+      </c>
+      <c r="L78">
+        <v>46.37921168379675</v>
+      </c>
+      <c r="M78">
+        <v>96.62335767457658</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>55.07531387450865</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>101.4545255583054</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>88.89348906061046</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>173.6849312800677</v>
+      </c>
+      <c r="G79">
+        <v>106.5267578517748</v>
+      </c>
+      <c r="H79">
+        <v>173.6849312800677</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>115.7899541867118</v>
+      </c>
+      <c r="L79">
+        <v>55.57917800962166</v>
+      </c>
+      <c r="M79">
+        <v>115.7899541867118</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>59.05287663522302</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>114.6320546448447</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>106.5267578517748</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>333.6766137117742</v>
+      </c>
+      <c r="G80">
+        <v>217.7634697432215</v>
+      </c>
+      <c r="H80">
+        <v>333.6766137117742</v>
+      </c>
+      <c r="I80">
+        <v>23.40800000000001</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>222.4510758078495</v>
+      </c>
+      <c r="L80">
+        <v>113.0951748716108</v>
+      </c>
+      <c r="M80">
+        <v>245.8590758078495</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>116.786814799121</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>-14.04480000000001</v>
+      </c>
+      <c r="S80">
+        <v>1.170400000000001</v>
+      </c>
+      <c r="T80">
+        <v>229.8819896707317</v>
+      </c>
+      <c r="U80">
+        <v>-14.04480000000001</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>218.9338697432215</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>479.4119050264652</v>
+      </c>
+      <c r="G81">
+        <v>385.6303739717876</v>
+      </c>
+      <c r="H81">
+        <v>479.4119050264652</v>
+      </c>
+      <c r="I81">
+        <v>163.5554861111111</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>319.6079366843101</v>
+      </c>
+      <c r="L81">
+        <v>198.0970033461227</v>
+      </c>
+      <c r="M81">
+        <v>483.1634227954212</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>167.7941667592628</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>-98.13329166666666</v>
+      </c>
+      <c r="S81">
+        <v>8.177774305555557</v>
+      </c>
+      <c r="T81">
+        <v>365.8911701053855</v>
+      </c>
+      <c r="U81">
+        <v>-98.13329166666666</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>393.8081482773432</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>494.5574681466213</v>
+      </c>
+      <c r="G82">
+        <v>303.3285804632611</v>
+      </c>
+      <c r="H82">
+        <v>494.5574681466213</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>329.7049787644142</v>
+      </c>
+      <c r="L82">
+        <v>131.8819915057657</v>
+      </c>
+      <c r="M82">
+        <v>329.7049787644142</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>168.1495391698513</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>300.031530675617</v>
+      </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>303.3285804632611</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>456.4712673454467</v>
+      </c>
+      <c r="G83">
+        <v>314.619043971874</v>
+      </c>
+      <c r="H83">
+        <v>456.4712673454467</v>
+      </c>
+      <c r="I83">
+        <v>61.87500000000001</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>304.3141782302978</v>
+      </c>
+      <c r="L83">
+        <v>150.1375630744221</v>
+      </c>
+      <c r="M83">
+        <v>366.1891782302978</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>173.4590815912698</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>-37.12500000000001</v>
+      </c>
+      <c r="S83">
+        <v>3.093750000000001</v>
+      </c>
+      <c r="T83">
+        <v>323.5966446656918</v>
+      </c>
+      <c r="U83">
+        <v>-37.12500000000001</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>317.712793971874</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>430.6260011208366</v>
+      </c>
+      <c r="G84">
+        <v>270.7700806874465</v>
+      </c>
+      <c r="H84">
+        <v>430.6260011208366</v>
+      </c>
+      <c r="I84">
+        <v>11.88</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>287.0840007472244</v>
+      </c>
+      <c r="L84">
+        <v>149.4820003736122</v>
+      </c>
+      <c r="M84">
+        <v>298.9640007472244</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>133.4940603474594</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>-7.128000000000001</v>
+      </c>
+      <c r="S84">
+        <v>0.5940000000000002</v>
+      </c>
+      <c r="T84">
+        <v>282.9760607210716</v>
+      </c>
+      <c r="U84">
+        <v>-7.128000000000001</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>271.3640806874465</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>438.3617975481563</v>
+      </c>
+      <c r="G85">
+        <v>322.1372613850915</v>
+      </c>
+      <c r="H85">
+        <v>438.3617975481563</v>
+      </c>
+      <c r="I85">
+        <v>95.13456944444447</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>292.2411983654376</v>
+      </c>
+      <c r="L85">
+        <v>193.687883904941</v>
+      </c>
+      <c r="M85">
+        <v>387.3757678098821</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>135.8921572399285</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>-57.08074166666668</v>
+      </c>
+      <c r="S85">
+        <v>4.756728472222224</v>
+      </c>
+      <c r="T85">
+        <v>329.5800411448695</v>
+      </c>
+      <c r="U85">
+        <v>-57.08074166666668</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <v>326.8939898573137</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>484.213433843423</v>
+      </c>
+      <c r="G86">
+        <v>317.0042394239661</v>
+      </c>
+      <c r="H86">
+        <v>484.213433843423</v>
+      </c>
+      <c r="I86">
+        <v>35.75</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>322.8089558956153</v>
+      </c>
+      <c r="L86">
+        <v>172.1082988298953</v>
+      </c>
+      <c r="M86">
+        <v>358.5589558956153</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>179.1589705220665</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>-21.45</v>
+      </c>
+      <c r="S86">
+        <v>1.7875</v>
+      </c>
+      <c r="T86">
+        <v>351.2672693519619</v>
+      </c>
+      <c r="U86">
+        <v>-21.45</v>
+      </c>
+      <c r="V86">
+        <v>0</v>
+      </c>
+      <c r="W86">
+        <v>318.7917394239661</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>479.7082956941788</v>
+      </c>
+      <c r="G87">
+        <v>302.7496080257631</v>
+      </c>
+      <c r="H87">
+        <v>479.7082956941788</v>
+      </c>
+      <c r="I87">
+        <v>15.2295</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>319.8055304627859</v>
+      </c>
+      <c r="L87">
+        <v>164.1671649267651</v>
+      </c>
+      <c r="M87">
+        <v>335.0350304627859</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>187.0862353207297</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>-9.137700000000002</v>
+      </c>
+      <c r="S87">
+        <v>0.7614750000000001</v>
+      </c>
+      <c r="T87">
+        <v>351.2534002474948</v>
+      </c>
+      <c r="U87">
+        <v>-9.137700000000002</v>
+      </c>
+      <c r="V87">
+        <v>0</v>
+      </c>
+      <c r="W87">
+        <v>303.5110830257631</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>427.3360647092156</v>
+      </c>
+      <c r="G88">
+        <v>262.0994530216523</v>
+      </c>
+      <c r="H88">
+        <v>427.3360647092156</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>284.8907098061437</v>
+      </c>
+      <c r="L88">
+        <v>125.3519123147032</v>
+      </c>
+      <c r="M88">
+        <v>284.8907098061437</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>166.6610652365941</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <v>0</v>
+      </c>
+      <c r="T88">
+        <v>292.0129775512974</v>
+      </c>
+      <c r="U88">
+        <v>0</v>
+      </c>
+      <c r="V88">
+        <v>0</v>
+      </c>
+      <c r="W88">
+        <v>262.0994530216523</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>388.3606919049017</v>
+      </c>
+      <c r="G89">
+        <v>300.6449799238953</v>
+      </c>
+      <c r="H89">
+        <v>388.3606919049017</v>
+      </c>
+      <c r="I89">
+        <v>111.5186111111112</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>258.9071279366011</v>
+      </c>
+      <c r="L89">
+        <v>181.508612133379</v>
+      </c>
+      <c r="M89">
+        <v>370.4257390477123</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>120.3918144905195</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>-66.91116666666669</v>
+      </c>
+      <c r="S89">
+        <v>5.575930555555558</v>
+      </c>
+      <c r="T89">
+        <v>301.9004266238985</v>
+      </c>
+      <c r="U89">
+        <v>-66.91116666666669</v>
+      </c>
+      <c r="V89">
+        <v>0</v>
+      </c>
+      <c r="W89">
+        <v>306.2209104794508</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>389.8426452434679</v>
+      </c>
+      <c r="G90">
+        <v>275.5583690826603</v>
+      </c>
+      <c r="H90">
+        <v>389.8426452434679</v>
+      </c>
+      <c r="I90">
+        <v>65.098</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>259.8950968289786</v>
+      </c>
+      <c r="L90">
+        <v>162.4965484144893</v>
+      </c>
+      <c r="M90">
+        <v>324.9930968289786</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>144.2417787400831</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>-39.0588</v>
+      </c>
+      <c r="S90">
+        <v>3.2549</v>
+      </c>
+      <c r="T90">
+        <v>306.7383271545724</v>
+      </c>
+      <c r="U90">
+        <v>-39.0588</v>
+      </c>
+      <c r="V90">
+        <v>0</v>
+      </c>
+      <c r="W90">
+        <v>278.8132690826603</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>476.6554718167309</v>
+      </c>
+      <c r="G91">
+        <v>304.9150893809283</v>
+      </c>
+      <c r="H91">
+        <v>476.6554718167309</v>
+      </c>
+      <c r="I91">
+        <v>22.44000000000001</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>317.7703145444873</v>
+      </c>
+      <c r="L91">
+        <v>139.4862289632398</v>
+      </c>
+      <c r="M91">
+        <v>340.2103145444873</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>147.7631962631866</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <v>-13.464</v>
+      </c>
+      <c r="S91">
+        <v>1.122000000000001</v>
+      </c>
+      <c r="T91">
+        <v>287.2494252264264</v>
+      </c>
+      <c r="U91">
+        <v>-13.464</v>
+      </c>
+      <c r="V91">
+        <v>0</v>
+      </c>
+      <c r="W91">
+        <v>306.0370893809283</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>615.6330559075565</v>
+      </c>
+      <c r="G92">
+        <v>401.304274289968</v>
+      </c>
+      <c r="H92">
+        <v>615.6330559075565</v>
+      </c>
+      <c r="I92">
+        <v>42.35000000000002</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>410.4220372717043</v>
+      </c>
+      <c r="L92">
+        <v>226.3860186358522</v>
+      </c>
+      <c r="M92">
+        <v>452.7720372717043</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>246.2532223630226</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <v>-25.41000000000001</v>
+      </c>
+      <c r="S92">
+        <v>2.117500000000001</v>
+      </c>
+      <c r="T92">
+        <v>472.6392409988748</v>
+      </c>
+      <c r="U92">
+        <v>-25.41000000000001</v>
+      </c>
+      <c r="V92">
+        <v>0</v>
+      </c>
+      <c r="W92">
+        <v>403.421774289968</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>692.9910201807596</v>
+      </c>
+      <c r="G93">
+        <v>425.0344923775326</v>
+      </c>
+      <c r="H93">
+        <v>692.9910201807596</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>461.9940134538397</v>
+      </c>
+      <c r="L93">
+        <v>184.7976053815359</v>
+      </c>
+      <c r="M93">
+        <v>461.9940134538397</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>256.406677466881</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <v>0</v>
+      </c>
+      <c r="S93">
+        <v>0</v>
+      </c>
+      <c r="T93">
+        <v>441.2042828484169</v>
+      </c>
+      <c r="U93">
+        <v>0</v>
+      </c>
+      <c r="V93">
+        <v>0</v>
+      </c>
+      <c r="W93">
+        <v>425.0344923775326</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>623.2502960677919</v>
+      </c>
+      <c r="G94">
+        <v>382.2601815882457</v>
+      </c>
+      <c r="H94">
+        <v>623.2502960677919</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>415.5001973785279</v>
+      </c>
+      <c r="L94">
+        <v>203.5950967154787</v>
+      </c>
+      <c r="M94">
+        <v>415.5001973785279</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>224.3701065844051</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <v>0</v>
+      </c>
+      <c r="S94">
+        <v>0</v>
+      </c>
+      <c r="T94">
+        <v>427.9652032998837</v>
+      </c>
+      <c r="U94">
+        <v>0</v>
+      </c>
+      <c r="V94">
+        <v>0</v>
+      </c>
+      <c r="W94">
+        <v>382.2601815882457</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>522.2699955778266</v>
+      </c>
+      <c r="G95">
+        <v>320.3255972877337</v>
+      </c>
+      <c r="H95">
+        <v>522.2699955778266</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>348.1799970518844</v>
+      </c>
+      <c r="L95">
+        <v>156.680998673348</v>
+      </c>
+      <c r="M95">
+        <v>348.1799970518844</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>182.7944984522393</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>0</v>
+      </c>
+      <c r="S95">
+        <v>0</v>
+      </c>
+      <c r="T95">
+        <v>339.4754971255873</v>
+      </c>
+      <c r="U95">
+        <v>0</v>
+      </c>
+      <c r="V95">
+        <v>0</v>
+      </c>
+      <c r="W95">
+        <v>320.3255972877337</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>432.2857888600307</v>
+      </c>
+      <c r="G96">
+        <v>265.1352838341522</v>
+      </c>
+      <c r="H96">
+        <v>432.2857888600307</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>288.1905259066871</v>
+      </c>
+      <c r="L96">
+        <v>135.4495471761429</v>
+      </c>
+      <c r="M96">
+        <v>288.1905259066871</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>164.2685997668117</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <v>0</v>
+      </c>
+      <c r="S96">
+        <v>0</v>
+      </c>
+      <c r="T96">
+        <v>299.7181469429546</v>
+      </c>
+      <c r="U96">
+        <v>0</v>
+      </c>
+      <c r="V96">
+        <v>0</v>
+      </c>
+      <c r="W96">
+        <v>265.1352838341522</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>320.1019211304996</v>
+      </c>
+      <c r="G97">
+        <v>196.3291782933731</v>
+      </c>
+      <c r="H97">
+        <v>320.1019211304996</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>213.4012807536664</v>
+      </c>
+      <c r="L97">
+        <v>93.89656353161322</v>
+      </c>
+      <c r="M97">
+        <v>213.4012807536664</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>105.6336339730649</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>0</v>
+      </c>
+      <c r="S97">
+        <v>0</v>
+      </c>
+      <c r="T97">
+        <v>199.5301975046781</v>
+      </c>
+      <c r="U97">
+        <v>0</v>
+      </c>
+      <c r="V97">
+        <v>0</v>
+      </c>
+      <c r="W97">
+        <v>196.3291782933731</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>216.2466311637156</v>
+      </c>
+      <c r="G98">
+        <v>132.6312671137456</v>
+      </c>
+      <c r="H98">
+        <v>216.2466311637156</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>144.1644207758104</v>
+      </c>
+      <c r="L98">
+        <v>59.10741251808226</v>
+      </c>
+      <c r="M98">
+        <v>144.1644207758104</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>86.49865246548626</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98">
+        <v>0</v>
+      </c>
+      <c r="S98">
+        <v>0</v>
+      </c>
+      <c r="T98">
+        <v>145.6060649835685</v>
+      </c>
+      <c r="U98">
+        <v>0</v>
+      </c>
+      <c r="V98">
+        <v>0</v>
+      </c>
+      <c r="W98">
+        <v>132.6312671137456</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>159.9620433649361</v>
+      </c>
+      <c r="G99">
+        <v>98.11005326382744</v>
+      </c>
+      <c r="H99">
+        <v>159.9620433649361</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>106.6413622432907</v>
+      </c>
+      <c r="L99">
+        <v>43.72295851974918</v>
+      </c>
+      <c r="M99">
+        <v>106.6413622432907</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <v>63.98481734597442</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <v>0</v>
+      </c>
+      <c r="S99">
+        <v>0</v>
+      </c>
+      <c r="T99">
+        <v>107.7077758657236</v>
+      </c>
+      <c r="U99">
+        <v>0</v>
+      </c>
+      <c r="V99">
+        <v>0</v>
+      </c>
+      <c r="W99">
+        <v>98.11005326382744</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>146.7133805181454</v>
+      </c>
+      <c r="G100">
+        <v>89.98420671779584</v>
+      </c>
+      <c r="H100">
+        <v>146.7133805181454</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>97.80892034543027</v>
+      </c>
+      <c r="L100">
+        <v>40.10165734162641</v>
+      </c>
+      <c r="M100">
+        <v>97.80892034543027</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>46.94828176580653</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <v>0</v>
+      </c>
+      <c r="S100">
+        <v>0</v>
+      </c>
+      <c r="T100">
+        <v>87.04993910743295</v>
+      </c>
+      <c r="U100">
+        <v>0</v>
+      </c>
+      <c r="V100">
+        <v>0</v>
+      </c>
+      <c r="W100">
+        <v>89.98420671779584</v>
       </c>
     </row>
   </sheetData>
